--- a/test-main/src/main/resources/rule7/发送到流立方的数据.xlsx
+++ b/test-main/src/main/resources/rule7/发送到流立方的数据.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>successed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEPOSIT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,6 +82,15 @@
   <si>
     <t>dataDisposeSehedule</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
+  </si>
+  <si>
+    <t>SUCCESSED</t>
   </si>
 </sst>
 </file>
@@ -461,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -478,7 +483,7 @@
     <col min="8" max="8" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,148 +503,169 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="3">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="6:6" ht="15" x14ac:dyDescent="0.15">

--- a/test-main/src/main/resources/rule7/发送到流立方的数据.xlsx
+++ b/test-main/src/main/resources/rule7/发送到流立方的数据.xlsx
@@ -149,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,9 +160,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="A8" sqref="A8:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,9 +664,6 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="6:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
